--- a/public/Excel/15data siswa.xlsx
+++ b/public/Excel/15data siswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49d21441bb58c6be/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{CFEA4A2C-B4D5-47FD-A856-30197CC72A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E11C6DF-C222-4C3F-BEE6-0611C405009C}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{CFEA4A2C-B4D5-47FD-A856-30197CC72A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29ACF85D-72A4-4099-A46B-338B76FD9244}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4BA352E3-087E-4FB9-A032-C049AB6FDE82}"/>
   </bookViews>
@@ -7978,6 +7978,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8279,8 +8283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC6A6D3-0F62-4ADB-8C4A-57374A7A1274}">
   <dimension ref="A1:F1301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1279" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A1301" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1309" sqref="I1309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
